--- a/FigureData.xlsx
+++ b/FigureData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">vacc_relative_contribution_to_R</t>
   </si>
   <si>
-    <t xml:space="preserve">absolute contributions “medium efficacy”, 67% of the total population is vaccinated</t>
+    <t xml:space="preserve">absolute contributions “medium efficacy”, ~65% of the total population is vaccinated</t>
   </si>
   <si>
-    <t xml:space="preserve">absolute contributions “medium efficacy”, but 90% of the eligible population is vaccinated</t>
+    <t xml:space="preserve">absolute contributions “medium efficacy”, but ~90% of the eligible population is vaccinated, i.e. ~80% of the total population is vaccinated</t>
   </si>
   <si>
     <t xml:space="preserve">age_independent_vaccine_efficacy_s</t>
@@ -107,6 +107,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -166,8 +167,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -206,35 +211,35 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.51351163</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.14992656</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.2454177</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.09114411</v>
       </c>
     </row>
@@ -257,38 +262,38 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.38159051</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.17360365</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.28493897</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.15986686</v>
       </c>
     </row>
@@ -311,38 +316,38 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.31652415</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.18158988</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.29490115</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.20698482</v>
       </c>
     </row>
@@ -365,322 +370,322 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.4413</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>0.518</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>0.7301</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.3571</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>0.4099</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.5538</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>0.2746</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.3042</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.3841</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>0.15</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.1934</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.2007</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.2202</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>0.1136</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.0992</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>0.0613</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>0.035</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>-0.0004</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>-0.0932</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>-0.0424</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>-0.0983</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>-0.2437</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>0.35</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>-0.1187</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>-0.1946</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>-0.3908</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>-0.194</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>-0.2894</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>-0.5347</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>0.45</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>-0.2683</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>-0.3829</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>-0.6759</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>-0.3418</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>-0.475</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>-0.8146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>0.55</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>-0.4144</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>-0.566</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>-0.951</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>-0.4863</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>-0.6558</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>-1.0854</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>0.65</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>-0.5574</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>-0.7445</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>-1.2179</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>-0.6278</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>-0.8323</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>-1.3487</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>-0.6975</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>-0.919</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>-1.4779</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>-0.7666</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>-1.0049</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>-1.6056</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>0.85</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>-0.8351</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>-1.09</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v>-1.7321</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>-0.903</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>-1.1743</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="4" t="n">
         <v>-1.8573</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>0.95</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>-0.9703</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>-1.2577</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v>-1.9814</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>-1.0372</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <v>-1.3405</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <v>-2.1043</v>
       </c>
     </row>
@@ -703,601 +708,601 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.7998</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>0.4002</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>1.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>0.025</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.7943</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>0.3929</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>1.1872</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>0.7889</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.3855</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>1.1745</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>0.075</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.7836</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.3782</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>1.1618</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>0.7784</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.3707</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>1.1492</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>0.125</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>0.7733</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>0.3633</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>1.1366</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>0.7684</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>0.3557</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>1.1241</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>0.175</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>0.7635</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>0.3482</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>1.1117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>0.7588</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>0.3405</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>1.0993</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>0.225</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>0.7543</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>0.3328</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>1.087</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>0.7498</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>0.325</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>1.0748</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>0.275</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>0.7456</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>0.3171</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>1.0627</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>0.7416</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>0.3092</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>1.0507</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>0.325</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>0.7377</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>0.3011</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>1.0388</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>0.7341</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>0.293</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>1.027</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>0.375</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>0.7307</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>0.2847</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>1.0154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>0.7275</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>0.2763</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>1.0038</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>0.425</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>0.7247</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>0.2678</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v>0.9925</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>0.7221</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>0.2592</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="4" t="n">
         <v>0.9813</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>0.475</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>0.7198</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>0.2504</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v>0.9702</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>0.7179</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <v>0.2414</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <v>0.9594</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>0.525</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>0.7164</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>0.2323</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="4" t="n">
         <v>0.9488</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>0.7154</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <v>0.223</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="4" t="n">
         <v>0.9384</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>0.575</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>0.7147</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <v>0.2135</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="4" t="n">
         <v>0.9282</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>0.7146</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>0.2037</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="4" t="n">
         <v>0.9184</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>0.625</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>0.7151</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <v>0.1937</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="4" t="n">
         <v>0.9088</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>0.7161</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <v>0.1835</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="4" t="n">
         <v>0.8996</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>0.675</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>0.7178</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>0.1729</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="4" t="n">
         <v>0.8907</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>0.7202</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <v>0.162</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="4" t="n">
         <v>0.8823</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <v>0.725</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>0.7234</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <v>0.1508</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="4" t="n">
         <v>0.8743</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>0.7275</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="4" t="n">
         <v>0.1392</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="4" t="n">
         <v>0.8667</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <v>0.775</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>0.7325</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="4" t="n">
         <v>0.1273</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="4" t="n">
         <v>0.8597</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>0.7384</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="4" t="n">
         <v>0.1149</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="4" t="n">
         <v>0.8533</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <v>0.825</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>0.7454</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="4" t="n">
         <v>0.1021</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="4" t="n">
         <v>0.8475</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <v>0.85</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>0.7535</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="4" t="n">
         <v>0.0889</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="4" t="n">
         <v>0.8423</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>0.7627</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="4" t="n">
         <v>0.0752</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="4" t="n">
         <v>0.8379</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>0.7732</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="4" t="n">
         <v>0.061</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="4" t="n">
         <v>0.8342</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="4" t="n">
         <v>0.925</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>0.7849</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="4" t="n">
         <v>0.0464</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="4" t="n">
         <v>0.8312</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>0.7978</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="4" t="n">
         <v>0.0313</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="4" t="n">
         <v>0.8291</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="4" t="n">
         <v>0.975</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>0.812</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="4" t="n">
         <v>0.0159</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="4" t="n">
         <v>0.8279</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>0.8274</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="4" t="n">
         <v>0.8274</v>
       </c>
     </row>
@@ -1320,475 +1325,475 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.6665</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>0.3335</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>0.025</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.6691</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>0.3309</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>0.6717</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.3283</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>0.075</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.6745</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.3255</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>0.6774</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.3226</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>0.125</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>0.6804</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>0.3196</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>0.6835</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>0.3165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>0.175</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>0.6868</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>0.3132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>0.6903</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>0.3097</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>0.225</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>0.6939</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>0.3061</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>0.6976</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>0.3024</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>0.275</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>0.7016</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>0.2984</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>0.7058</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>0.2942</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>0.325</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>0.7101</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>0.2899</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>0.7148</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>0.2852</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>0.375</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>0.7196</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>0.2804</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>0.7247</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>0.2753</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>0.425</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>0.7301</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>0.2699</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>0.7359</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>0.2641</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>0.475</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>0.7419</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>0.2581</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>0.7483</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <v>0.2517</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>0.525</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>0.7551</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>0.2449</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>0.7623</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <v>0.2377</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>0.575</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>0.7782</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>0.2218</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>0.625</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>0.7868</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <v>0.2132</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>0.7961</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <v>0.2039</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>0.675</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>0.8059</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>0.1941</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>0.8164</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <v>0.1836</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <v>0.725</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>0.8275</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <v>0.1725</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>0.8393</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="4" t="n">
         <v>0.1607</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <v>0.775</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>0.852</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="4" t="n">
         <v>0.148</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>0.8653</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="4" t="n">
         <v>0.1347</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <v>0.825</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>0.8795</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="4" t="n">
         <v>0.1205</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <v>0.85</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>0.8945</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="4" t="n">
         <v>0.1055</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>0.9103</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="4" t="n">
         <v>0.0897</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>0.9269</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="4" t="n">
         <v>0.0731</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="4" t="n">
         <v>0.925</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>0.9442</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="4" t="n">
         <v>0.0558</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>0.9622</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="4" t="n">
         <v>0.0378</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="4" t="n">
         <v>0.975</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>0.9809</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="4" t="n">
         <v>0.0191</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1811,78 +1816,78 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.4580029</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.20836728</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.34199717</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.19187974</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.15779039</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.14542971</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.21461812</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.34545187</v>
       </c>
     </row>
@@ -1905,729 +1910,729 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.4321</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>0.5679</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>0.3093</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>0.6907</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>0.025</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.4388</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>0.5612</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.3185</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.6815</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>0.4457</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.5543</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.3279</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.6721</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>0.075</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.4529</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.5471</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.3376</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>0.6624</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>0.4602</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.5398</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>0.3476</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>0.6524</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>0.125</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>0.4678</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>0.5322</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>0.3579</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>0.6421</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>0.4757</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>0.5243</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>0.3686</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>0.6314</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>0.175</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>0.4838</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>0.5162</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>0.3795</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>0.6205</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>0.4921</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>0.5079</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>0.3908</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>0.6092</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>0.225</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>0.5008</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>0.4992</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>0.4025</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.5975</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>0.5097</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>0.4903</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>0.4145</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>0.5855</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>0.275</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>0.5189</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>0.4811</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>0.4269</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>0.5731</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>0.5285</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>0.4715</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>0.4398</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>0.5602</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>0.325</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>0.5384</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>0.4616</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>0.453</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>0.547</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>0.5486</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>0.4514</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>0.4666</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>0.5334</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>0.375</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>0.5592</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>0.4408</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>0.4807</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>0.5193</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>0.5702</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>0.4298</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>0.4953</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>0.5047</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>0.425</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>0.5816</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>0.4184</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v>0.5103</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="4" t="n">
         <v>0.4897</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>0.5934</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>0.4066</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="4" t="n">
         <v>0.5258</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="4" t="n">
         <v>0.4742</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>0.475</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>0.6057</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>0.3943</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v>0.5418</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <v>0.4582</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>0.6184</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <v>0.3816</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <v>0.5583</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="4" t="n">
         <v>0.4417</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>0.525</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>0.6316</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>0.3684</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="4" t="n">
         <v>0.5754</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="4" t="n">
         <v>0.4246</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>0.6453</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <v>0.3547</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="4" t="n">
         <v>0.593</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="4" t="n">
         <v>0.407</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="4" t="n">
         <v>0.575</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>0.6595</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <v>0.3405</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="4" t="n">
         <v>0.6111</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="4" t="n">
         <v>0.3889</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>0.6743</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>0.3257</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="4" t="n">
         <v>0.6298</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="4" t="n">
         <v>0.3702</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="4" t="n">
         <v>0.625</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>0.6897</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <v>0.3103</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="4" t="n">
         <v>0.6491</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="4" t="n">
         <v>0.3509</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>0.7056</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <v>0.2944</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="4" t="n">
         <v>0.669</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="4" t="n">
         <v>0.331</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="4" t="n">
         <v>0.675</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>0.7222</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>0.2778</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="4" t="n">
         <v>0.6895</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="4" t="n">
         <v>0.3105</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>0.7395</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <v>0.2605</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="4" t="n">
         <v>0.7106</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="4" t="n">
         <v>0.2894</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="4" t="n">
         <v>0.725</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>0.7574</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <v>0.2426</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="4" t="n">
         <v>0.7322</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="4" t="n">
         <v>0.2678</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>0.776</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="4" t="n">
         <v>0.224</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="4" t="n">
         <v>0.7545</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="4" t="n">
         <v>0.2455</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="4" t="n">
         <v>0.775</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>0.7953</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="4" t="n">
         <v>0.2047</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="4" t="n">
         <v>0.7773</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="4" t="n">
         <v>0.2227</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>0.8153</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="4" t="n">
         <v>0.1847</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="4" t="n">
         <v>0.8006</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="4" t="n">
         <v>0.1994</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="4" t="n">
         <v>0.825</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>0.8361</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="4" t="n">
         <v>0.1639</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="4" t="n">
         <v>0.8244</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="4" t="n">
         <v>0.1756</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="4" t="n">
         <v>0.85</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>0.8576</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="4" t="n">
         <v>0.1424</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="4" t="n">
         <v>0.8487</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="4" t="n">
         <v>0.1513</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="4" t="n">
         <v>0.875</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>0.8798</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="4" t="n">
         <v>0.1202</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="4" t="n">
         <v>0.8735</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="4" t="n">
         <v>0.1265</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>0.9026</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="4" t="n">
         <v>0.0974</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="4" t="n">
         <v>0.8985</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="4" t="n">
         <v>0.1015</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="4" t="n">
         <v>0.925</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>0.9262</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="4" t="n">
         <v>0.0738</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="4" t="n">
         <v>0.9238</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="4" t="n">
         <v>0.0762</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>0.9503</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="4" t="n">
         <v>0.0497</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="4" t="n">
         <v>0.9492</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="4" t="n">
         <v>0.0508</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="4" t="n">
         <v>0.975</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>0.975</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="4" t="n">
         <v>0.025</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="4" t="n">
         <v>0.9747</v>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="4" t="n">
         <v>0.0253</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="4" t="n">
         <v>0</v>
       </c>
     </row>
